--- a/Masters/Character/CharacterHomePositionMaster/ClassSchema.xlsx
+++ b/Masters/Character/CharacterHomePositionMaster/ClassSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Aries-Master\Masters\Character\CharacterHomePositionMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32E20E2-85E5-4CAE-A2E3-CA9B9EC6D174}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8785A57E-E298-42A7-ACC8-A0C2F0969ABA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9360" xr2:uid="{D010554B-594E-4258-A22D-8907CA064929}"/>
   </bookViews>
@@ -35,9 +35,6 @@
     <t>○</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>CharacterId</t>
   </si>
   <si>
@@ -87,6 +84,10 @@
   </si>
   <si>
     <t>NearBalloonPos</t>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -501,7 +502,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -518,25 +519,25 @@
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -590,25 +591,25 @@
     </row>
     <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -626,25 +627,25 @@
     </row>
     <row r="4" spans="1:20" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>

--- a/Masters/Character/CharacterHomePositionMaster/ClassSchema.xlsx
+++ b/Masters/Character/CharacterHomePositionMaster/ClassSchema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Aries-Master\Masters\Character\CharacterHomePositionMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8785A57E-E298-42A7-ACC8-A0C2F0969ABA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287F0D86-4B4D-470B-BAD4-70151851E42C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9360" xr2:uid="{D010554B-594E-4258-A22D-8907CA064929}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26655" windowHeight="14700" xr2:uid="{D010554B-594E-4258-A22D-8907CA064929}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>○</t>
   </si>
@@ -88,13 +88,21 @@
   <si>
     <t>uint</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#Ignore</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#Comment</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,13 +132,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -142,13 +143,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,25 +185,31 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,164 +528,169 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="12.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:20" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
